--- a/indicators/files/evaluation_indicators_with_ids.xlsx
+++ b/indicators/files/evaluation_indicators_with_ids.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9ADCE8D-09BD-414E-847C-32BFA2B16488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{740DB2A9-69C4-44C5-8A61-84EC47BE21F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="247">
   <si>
     <t>ID</t>
   </si>
@@ -101,6 +101,9 @@
     <t>5</t>
   </si>
   <si>
+    <t>Number of communes with comprehensive action plans that explicitly address all four WASH aspects: Water, Sanitation, Hygiene, and Water Resources Management.</t>
+  </si>
+  <si>
     <t>1300a</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
     <t>16%</t>
   </si>
   <si>
+    <t>Percentage of water service providers submitting monthly reports to DINEPA and local authorities</t>
+  </si>
+  <si>
     <t>1300b (monitoring Indicator)</t>
   </si>
   <si>
@@ -186,6 +192,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Number of communes that conducted at least one documented annual review meeting with multi-stakeholder participation to assess water and sanitation service provider performance in the past 12 months.</t>
   </si>
   <si>
     <t>2100b</t>
@@ -220,6 +229,9 @@
 Ensemble :</t>
   </si>
   <si>
+    <t>Percentage of population in intervention communes with access to at least basic drinking water service, defined as an improved water source within 30 minutes round trip.</t>
+  </si>
+  <si>
     <t>2100c</t>
   </si>
   <si>
@@ -242,6 +254,9 @@
 Ensemble : 4.83%</t>
   </si>
   <si>
+    <t>Percentage of population in intervention communes with access to safely managed drinking water service, defined as an improved water source on premises, available when needed, and free from contamination.</t>
+  </si>
+  <si>
     <t>2100d</t>
   </si>
   <si>
@@ -254,6 +269,551 @@
 2) « Potable » : exempt d'E. Coli et de contaminants prioritaires, tel que mesuré par les tests de potabilité de l'eau effectués chaque trimestre par le comité du point d'eau.
 3) « Financièrement viable (budget équilibré ou excédentaire) » : voir la présentation PowerPoint avec la définition de la viabilité financière des points d'eau gérés par la communauté.
 4) « Après 2 ans » : deux ans à compter de la date d'inauguration de chaque point d'eau intervenu.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Cavaillon : 0.00%
+Ferrier : 0.00%
+Léogâne : 0.2%
+Pignon : 0.00%
+Terre-Neuve : 0.00%
+Ensemble : 0.04%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>cavaillon: 11.7+0.6
+ferrier: 5.6+0.4
+leogane: 28.4+2.4
+pignon: 10.8+1.4
+terre-neuve: 7.8+1.6
+(rapport page 25: 4.2. Distribution of surveyed water points by type and functionality status)</t>
+    </r>
+  </si>
+  <si>
+    <t>% of intervention water points which are functional</t>
+  </si>
+  <si>
+    <t>2200a</t>
+  </si>
+  <si>
+    <t>Pourcentage de population pratiquant la défécation à l'air libre (DAL)</t>
+  </si>
+  <si>
+    <t>Pourcentage de communautés d'intervention vérifiées comme étant exemptes de défécation à l'air libre (ODF) par le comité WASH de la commune.
+« ODF vérifié » :
+0) [Vérification effectuée par le comité WASH de la commune]
+1) 100 % des ménages disposent de toilettes qui ont été utilisées au moins une fois.
+2) Les toilettes répondent aux normes minimales d'hygiène, d'intimité et de sécurité et sont conformes aux normes minimales de la DINEPA.
+3) Les zones de défécation identifiées lors des visites de contact n'ont présenté aucun signe de présence de matières fécales.
+4) Les écoles fréquentées par 80 % des enfants respectent les normes d'hygiène.
+5) Le principal marché fréquenté par la population dispose d'un bloc sanitaire utilisable ou une démarche officielle a été entreprise à cette fin.
+6) La communauté est disposée à maintenir un état ODF.</t>
+  </si>
+  <si>
+    <t>% du nombre total de communautés concernées par l'intervention</t>
+  </si>
+  <si>
+    <t>Cavaillon :34% 
+Ferrier : 26.2% 
+Léogâne : 17.2% 
+Pignon : 5.2% 
+Terre-Neuve : 66.7% 
+Ensemble : 26.8%</t>
+  </si>
+  <si>
+    <t>Percentage of population practicing open defecation (OD)</t>
+  </si>
+  <si>
+    <t>2200b</t>
+  </si>
+  <si>
+    <t>Pourcentage de communautés d'intervention certifiées comme étant exemptes de défécation à l'air libre (DAL)</t>
+  </si>
+  <si>
+    <t>Pourcentage de communautés d'intervention certifiées « sans défécation à l'air libre » (ODF) par le comité communal et l'OREPA, et ayant conservé ce statut vérifié pendant au moins un an.</t>
+  </si>
+  <si>
+    <t>Cavaillon : 0.00% 
+Ferrier : 0.00% 
+Léogâne : 0.00% 
+Pignon : 0.00% 
+Terre-Neuve : 0.00% 
+Ensemble : 0.00%</t>
+  </si>
+  <si>
+    <t>Percentage of intervention communities that have been certified as Open Defecation Free (ODF) by the Communal Committee and OREPA, maintaining verified ODF status for at least one year.</t>
+  </si>
+  <si>
+    <t>2200c</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population des communes d'intervention bénéficiant d'au moins un service d'assainissement de base</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population des communes d'intervention ayant accès à au moins un service d'assainissement de base, défini comme des installations améliorées et non partagées.
+...au moins un service d'assainissement de base : 
+De base
+1) Amélioré (selon la classification du JMP)
+2) Non partagé
+3) [Au niveau des ménages]
+Remarque : comprend les services d'assainissement de base et gérés de manière sûre.</t>
+  </si>
+  <si>
+    <t>% du nombre total de personnes dans la commune</t>
+  </si>
+  <si>
+    <t>Cavaillon : 23.4%
+Ferrier : 29%
+Léogâne : 30.3%
+Pignon : 33.2%
+Terre-Neuve : 11.8%
+Ensemble : 26.6%</t>
+  </si>
+  <si>
+    <t>Percentage of population in intervention communes with access to safely managed sanitation service, meeting WHO/UNICEF JMP criteria.</t>
+  </si>
+  <si>
+    <t>2210a (MI)</t>
+  </si>
+  <si>
+    <t>Nombre de personnes bénéficiant d'un service d'assainissement de base dans les communes d'intervention</t>
+  </si>
+  <si>
+    <t>Nombre de personnes ayant nouvellement accès à des services d'assainissement de base dans les communes concernées par l'intervention, grâce aux interventions HANWASH.
+« Services d'assainissement de base » :
+1) Améliorés (selon la classification JMP)
+2) Non partagés
+3) [Au niveau des ménages]</t>
+  </si>
+  <si>
+    <t>personnes</t>
+  </si>
+  <si>
+    <t>2400a (MI)</t>
+  </si>
+  <si>
+    <t>Pourcentage d'écoles bénéficiant au moins d'un service d'eau potable, d'assainissement et d'hygiène de base</t>
+  </si>
+  <si>
+    <t>Pourcentage d'écoles dans les communes d'intervention disposant de services de base en matière d'eau potable, d'assainissement et d'hygiène, répondant aux critères du JMP (Joint Monitoring Programme) de l'OMS/UNICEF pour les écoles.
+« Service d'eau potable de base » :
+1) Amélioré
+2) Actuellement disponible
+« Service d'assainissement de base » :
+1) Amélioré
+2) Utilisable
+3) Toilettes séparées pour les filles et les garçons disponibles
+« Service d'hygiène de base » :
+1) Présence d'installations pour se laver les mains
+2) Présence de savon et d'eau</t>
+  </si>
+  <si>
+    <t>% du nombre total d'écoles dans les communes d'intervention</t>
+  </si>
+  <si>
+    <t>Cavaillon : 21%
+Ferrier : 47%
+Léogâne : 28%
+Pignon : 51%
+Terre-Neuve : 26%
+Ensemble : 32%</t>
+  </si>
+  <si>
+    <t>2400b (MI)</t>
+  </si>
+  <si>
+    <t>Pourcentage d'établissements de santé bénéficiant au moins d'un service d'eau potable, d'assainissement et d'hygiène de base</t>
+  </si>
+  <si>
+    <t>Pourcentage d'établissements de santé dans les zones d'intervention disposant de services de base en matière d'eau potable, d'assainissement et d'hygiène, répondant aux critères du JMP (Joint Monitoring Programme) de l'OMS/UNICEF pour les établissements de santé.
+« Services de base en matière d'eau potable » :
+1) Améliorés
+2) Sur place
+3) Actuellement disponibles
+« Services de base en matière d'assainissement » :
+1) Améliorés
+2) Utilisables
+3) Réservés au personnel
+4) Séparés par sexe avec des installations pour l'hygiène menstruelle
+5) Accessible aux utilisateurs à mobilité réduite
+« Service d'hygiène de base » :
+...Dans les lieux de soins
+1) Installations présentes
+2) Savon et eau ou désinfectant pour les mains à base d'alcool présents
+...Dans les toilettes
+1) À moins de 5 m des toilettes
+2) Installations présentes
+3) Savon et eau présents</t>
+  </si>
+  <si>
+    <t>% du nombre total d'établissements de santé dans les communes d'intervention</t>
+  </si>
+  <si>
+    <t>Cavaillon : 30%
+Ferrier : 17%
+Léogâne : 21%
+Pignon : 0.00%
+Terre-Neuve : 0.00%
+Ensemble : 20%</t>
+  </si>
+  <si>
+    <t>2410a</t>
+  </si>
+  <si>
+    <t>pourcentage d'écoles bénéficiant d'un service d'eau potable de base</t>
+  </si>
+  <si>
+    <t>Nombre d'écoles nouvellement équipées de services d'approvisionnement en eau potable de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères de l'OMS/UNICEF JMP pour les écoles.
+« Services d'approvisionnement en eau potable de base » :
+1) Améliorés
+2) Actuellement disponibles
+3) Potables</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Cavaillon : 6.18%
+Ferrier : 2.46%
+Léogâne : 6.17%
+Pignon : 4.53%
+Terre-Neuve : 1.23%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Total : 20.58%</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentage of schools with basic drinking water services</t>
+  </si>
+  <si>
+    <t>2410b</t>
+  </si>
+  <si>
+    <t>Pourcentage d'établissements de santé bénéficiant de services d'eau potable de base</t>
+  </si>
+  <si>
+    <t>Nombre d'établissements de santé nouvellement équipés de services d'approvisionnement en eau potable de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères du JMP de l'OMS/UNICEF pour les établissements de santé.
+« Services d'approvisionnement en eau potable de base » :
+1) Améliorés
+2) Sur place
+3) Actuellement disponibles
+4) Potables</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Cavaillon : 5
+Ferrier : 6
+Léogâne : 8
+Pignon : 1
+Terre-Neuve : 1
+Ensemble : 21
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+60%
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentage of health facilities with basic drinking water services</t>
+  </si>
+  <si>
+    <t>2420a</t>
+  </si>
+  <si>
+    <t>Pourcentage d'écoles bénéficiant de services d'assainissement de base</t>
+  </si>
+  <si>
+    <t>Nombre d'écoles nouvellement équipées de services d'assainissement de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères de l'OMS/UNICEF JMP pour les écoles.
+« Services d'assainissement de base » :
+1) Améliorés
+2) Utilisables
+3) Toilettes séparées pour les filles et les garçons disponibles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Cavaillon : 12
+Ferrier : 10
+Léogâne : 30
+Pignon : 15
+Terre-Neuve : 11
+Ensemble : 78
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>32.10%</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentage of schools with basic sanitation services</t>
+  </si>
+  <si>
+    <t>2420b</t>
+  </si>
+  <si>
+    <t>Pourcentage d'établissements de santé bénéficiant de services d'assainissement de base</t>
+  </si>
+  <si>
+    <t>Nombre d'établissements de santé nouvellement équipés de services d'assainissement de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères du JMP de l'OMS/UNICEF pour les établissements de santé.
+« Services d'assainissement de base » :
+1) Améliorés
+2) Utilisables
+3) Séparés pour le personnel et les patients
+4) Séparés par sexe avec des installations d'hygiène menstruelle
+5) Accessibles aux utilisateurs à mobilité réduite</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Cavaillon : 9
+Ferrier : 6
+Léogâne : 14
+Pignon : 3
+Terre-Neuve : 2
+Ensemble : 34
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+97.14%
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentage of health facilities with basic sanitation services</t>
+  </si>
+  <si>
+    <t>2430a</t>
+  </si>
+  <si>
+    <t>Pourcentage d'écoles bénéficiant  de services d'hygiène de base</t>
+  </si>
+  <si>
+    <t>Nombre d'écoles nouvellement équipées de services d'hygiène de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères de l'OMS/UNICEF JMP pour les écoles.
+« Hygiène de base » :
+1) Présence d'installations pour se laver les mains
+2) Présence de savon et d'eau</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Cavaillon : 14
+Ferrier : 9
+Léogâne : 20
+Pignon : 18
+Terre-Neuve : 4
+Ensemble : 65
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+26.75%</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentage of schools with basic hygiene services</t>
+  </si>
+  <si>
+    <t>2430b</t>
+  </si>
+  <si>
+    <t>Pourcentage d'établissements de santé bénéficiant de services d'hygiène de base</t>
+  </si>
+  <si>
+    <t>« Nombre d'établissements de santé nouvellement équipés de services d'hygiène de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères du JMP de l'OMS/UNICEF pour les établissements de santé.
+« Hygiène de base » :
+...Dans les lieux de soins
+1) Installations présentes
+2) Savon et eau ou désinfectant pour les mains à base d'alcool présents
+...Dans les toilettes
+1) À moins de 5 m des toilettes
+2) Installations présentes
+3) Savon et eau présents »</t>
+  </si>
+  <si>
+    <t>établissements de santé</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Cavaillon : 7
+Ferrier : 5
+Léogâne : 4
+Pignon : 2
+Terre-Neuve : 1
+Ensemble : 19
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+54.29%</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentage of health facilities benefiting from basic hygiene services</t>
+  </si>
+  <si>
+    <t>3100a</t>
+  </si>
+  <si>
+    <t>Montant cumulé des fonds engagés conformément aux valeurs fondamentales de HANWASH, sur la base d'un protocole d'accord signé avec HANWASH</t>
+  </si>
+  <si>
+    <t>Montant cumulé (en dollars américains) engagé dans des projets conformes aux valeurs fondamentales de HANWASH : leadership local, collaboration, approche systématique, impact et engagement.</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>$ 2 683 760,00</t>
+  </si>
+  <si>
+    <t>Cumulative funding committed to WASH projects aligned with HANWASH core values</t>
+  </si>
+  <si>
+    <t>3200a</t>
+  </si>
+  <si>
+    <t>Pourcentage de partenaires de mise en œuvre dans les zones du programme HANWASH ayant signé le cadre d'accord DINEPA.</t>
+  </si>
+  <si>
+    <t>Pourcentage de partenaires de mise en œuvre dans les zones couvertes par le programme HANWASH ayant signé l'Accord-cadre DINEPA, garantissant ainsi la conformité avec les normes nationales.
+(Nombre de partenaires de mise en œuvre ayant signé l'Accord-cadre / Nombre total de partenaires de mise en œuvre dans les zones couvertes par le programme HANWASH) x 100 »</t>
+  </si>
+  <si>
+    <t>% des partenaires de mise en œuvre dans les zones couvertes par le programme HANWASH</t>
+  </si>
+  <si>
+    <t>2300a</t>
+  </si>
+  <si>
+    <t>Percentage of population in intervention communes with access to at least basic hygiene service</t>
+  </si>
+  <si>
+    <t>Cavaillon : 1.56%
+Ferrier : 1.64%
+Léogâne : 9.42%
+Pignon : 4.55%
+Terre-Neuve : 0.77%
+Ensemble : 5%</t>
+  </si>
+  <si>
+    <t>2100e</t>
+  </si>
+  <si>
+    <t>Pourcentage des points d'eau concernés qui sont potables.</t>
+  </si>
+  <si>
+    <t>(rapport page 26: 4.3. Distribution and analysis of surveyed water points by potability status)
+Cavaillon: 11%
+Leogane: 23%
+Ferrier: 5%
+Pignon:10%
+Terre-Neuve:6%</t>
+  </si>
+  <si>
+    <t>% of intervention water points which are potable</t>
+  </si>
+  <si>
+    <t>2100f</t>
+  </si>
+  <si>
+    <t>Pourcentage des points d'eau concernés dont le budget est équilibré ou excédentaire après deux ans.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">(rapport page 25: Table 8: Water point management methods by municipality)
+CPE + OP + CAEPA + CTE = (&lt;=12.63%)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Proxy</t>
+    </r>
+  </si>
+  <si>
+    <t>% of intervention water points which have a balanced budget or a budget with surplus after 2 years</t>
   </si>
   <si>
     <r>
@@ -282,457 +842,8 @@
     </r>
   </si>
   <si>
-    <t>2200a</t>
-  </si>
-  <si>
-    <t>Pourcentage de population pratiquant la défécation à l'air libre (DAL)</t>
-  </si>
-  <si>
-    <t>Pourcentage de communautés d'intervention vérifiées comme étant exemptes de défécation à l'air libre (ODF) par le comité WASH de la commune.
-« ODF vérifié » :
-0) [Vérification effectuée par le comité WASH de la commune]
-1) 100 % des ménages disposent de toilettes qui ont été utilisées au moins une fois.
-2) Les toilettes répondent aux normes minimales d'hygiène, d'intimité et de sécurité et sont conformes aux normes minimales de la DINEPA.
-3) Les zones de défécation identifiées lors des visites de contact n'ont présenté aucun signe de présence de matières fécales.
-4) Les écoles fréquentées par 80 % des enfants respectent les normes d'hygiène.
-5) Le principal marché fréquenté par la population dispose d'un bloc sanitaire utilisable ou une démarche officielle a été entreprise à cette fin.
-6) La communauté est disposée à maintenir un état ODF.</t>
-  </si>
-  <si>
-    <t>% du nombre total de communautés concernées par l'intervention</t>
-  </si>
-  <si>
-    <t>Cavaillon :34% 
-Ferrier : 26.2% 
-Léogâne : 17.2% 
-Pignon : 5.2% 
-Terre-Neuve : 66.7% 
-Ensemble : 26.8%</t>
-  </si>
-  <si>
-    <t>2200b</t>
-  </si>
-  <si>
-    <t>Pourcentage de communautés d'intervention certifiées comme étant exemptes de défécation à l'air libre (DAL)</t>
-  </si>
-  <si>
-    <t>Pourcentage de communautés d'intervention certifiées « sans défécation à l'air libre » (ODF) par le comité communal et l'OREPA, et ayant conservé ce statut vérifié pendant au moins un an.</t>
-  </si>
-  <si>
-    <t>Cavaillon : 0.00% 
-Ferrier : 0.00% 
-Léogâne : 0.00% 
-Pignon : 0.00% 
-Terre-Neuve : 0.00% 
-Ensemble : 0.00%</t>
-  </si>
-  <si>
-    <t>2200c</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population des communes d'intervention bénéficiant d'au moins un service d'assainissement de base</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population des communes d'intervention ayant accès à au moins un service d'assainissement de base, défini comme des installations améliorées et non partagées.
-...au moins un service d'assainissement de base : 
-De base
-1) Amélioré (selon la classification du JMP)
-2) Non partagé
-3) [Au niveau des ménages]
-Remarque : comprend les services d'assainissement de base et gérés de manière sûre.</t>
-  </si>
-  <si>
-    <t>% du nombre total de personnes dans la commune</t>
-  </si>
-  <si>
-    <t>Cavaillon : 23.4%
-Ferrier : 29%
-Léogâne : 30.3%
-Pignon : 33.2%
-Terre-Neuve : 11.8%
-Ensemble : 26.6%</t>
-  </si>
-  <si>
-    <t>2210a (MI)</t>
-  </si>
-  <si>
-    <t>Nombre de personnes bénéficiant d'un service d'assainissement de base dans les communes d'intervention</t>
-  </si>
-  <si>
-    <t>Nombre de personnes ayant nouvellement accès à des services d'assainissement de base dans les communes concernées par l'intervention, grâce aux interventions HANWASH.
-« Services d'assainissement de base » :
-1) Améliorés (selon la classification JMP)
-2) Non partagés
-3) [Au niveau des ménages]</t>
-  </si>
-  <si>
-    <t>personnes</t>
-  </si>
-  <si>
-    <t>2400a (MI)</t>
-  </si>
-  <si>
-    <t>Pourcentage d'écoles bénéficiant au moins d'un service d'eau potable, d'assainissement et d'hygiène de base</t>
-  </si>
-  <si>
-    <t>Pourcentage d'écoles dans les communes d'intervention disposant de services de base en matière d'eau potable, d'assainissement et d'hygiène, répondant aux critères du JMP (Joint Monitoring Programme) de l'OMS/UNICEF pour les écoles.
-« Service d'eau potable de base » :
-1) Amélioré
-2) Actuellement disponible
-« Service d'assainissement de base » :
-1) Amélioré
-2) Utilisable
-3) Toilettes séparées pour les filles et les garçons disponibles
-« Service d'hygiène de base » :
-1) Présence d'installations pour se laver les mains
-2) Présence de savon et d'eau</t>
-  </si>
-  <si>
-    <t>% du nombre total d'écoles dans les communes d'intervention</t>
-  </si>
-  <si>
-    <t>Cavaillon : 21%
-Ferrier : 47%
-Léogâne : 28%
-Pignon : 51%
-Terre-Neuve : 26%
-Ensemble : 32%</t>
-  </si>
-  <si>
-    <t>2400b (MI)</t>
-  </si>
-  <si>
-    <t>Pourcentage d'établissements de santé bénéficiant au moins d'un service d'eau potable, d'assainissement et d'hygiène de base</t>
-  </si>
-  <si>
-    <t>Pourcentage d'établissements de santé dans les zones d'intervention disposant de services de base en matière d'eau potable, d'assainissement et d'hygiène, répondant aux critères du JMP (Joint Monitoring Programme) de l'OMS/UNICEF pour les établissements de santé.
-« Services de base en matière d'eau potable » :
-1) Améliorés
-2) Sur place
-3) Actuellement disponibles
-« Services de base en matière d'assainissement » :
-1) Améliorés
-2) Utilisables
-3) Réservés au personnel
-4) Séparés par sexe avec des installations pour l'hygiène menstruelle
-5) Accessible aux utilisateurs à mobilité réduite
-« Service d'hygiène de base » :
-...Dans les lieux de soins
-1) Installations présentes
-2) Savon et eau ou désinfectant pour les mains à base d'alcool présents
-...Dans les toilettes
-1) À moins de 5 m des toilettes
-2) Installations présentes
-3) Savon et eau présents</t>
-  </si>
-  <si>
-    <t>% du nombre total d'établissements de santé dans les communes d'intervention</t>
-  </si>
-  <si>
-    <t>Cavaillon : 30%
-Ferrier : 17%
-Léogâne : 21%
-Pignon : 0.00%
-Terre-Neuve : 0.00%
-Ensemble : 20%</t>
-  </si>
-  <si>
-    <t>2410a</t>
-  </si>
-  <si>
-    <t>pourcentage d'écoles bénéficiant d'un service d'eau potable de base</t>
-  </si>
-  <si>
-    <t>Nombre d'écoles nouvellement équipées de services d'approvisionnement en eau potable de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères de l'OMS/UNICEF JMP pour les écoles.
-« Services d'approvisionnement en eau potable de base » :
-1) Améliorés
-2) Actuellement disponibles
-3) Potables</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Cavaillon : 6.18%
-Ferrier : 2.46%
-Léogâne : 6.17%
-Pignon : 4.53%
-Terre-Neuve : 1.23%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Total : 20.58%</t>
-    </r>
-  </si>
-  <si>
-    <t>2410b</t>
-  </si>
-  <si>
-    <t>Pourcentage d'établissements de santé bénéficiant de services d'eau potable de base</t>
-  </si>
-  <si>
-    <t>Nombre d'établissements de santé nouvellement équipés de services d'approvisionnement en eau potable de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères du JMP de l'OMS/UNICEF pour les établissements de santé.
-« Services d'approvisionnement en eau potable de base » :
-1) Améliorés
-2) Sur place
-3) Actuellement disponibles
-4) Potables</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Cavaillon : 5
-Ferrier : 6
-Léogâne : 8
-Pignon : 1
-Terre-Neuve : 1
-Ensemble : 21
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-60%
-</t>
-    </r>
-  </si>
-  <si>
-    <t>2420a</t>
-  </si>
-  <si>
-    <t>Pourcentage d'écoles bénéficiant de services d'assainissement de base</t>
-  </si>
-  <si>
-    <t>Nombre d'écoles nouvellement équipées de services d'assainissement de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères de l'OMS/UNICEF JMP pour les écoles.
-« Services d'assainissement de base » :
-1) Améliorés
-2) Utilisables
-3) Toilettes séparées pour les filles et les garçons disponibles</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Cavaillon : 12
-Ferrier : 10
-Léogâne : 30
-Pignon : 15
-Terre-Neuve : 11
-Ensemble : 78
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>32.10%</t>
-    </r>
-  </si>
-  <si>
-    <t>2420b</t>
-  </si>
-  <si>
-    <t>Pourcentage d'établissements de santé bénéficiant de services d'assainissement de base</t>
-  </si>
-  <si>
-    <t>Nombre d'établissements de santé nouvellement équipés de services d'assainissement de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères du JMP de l'OMS/UNICEF pour les établissements de santé.
-« Services d'assainissement de base » :
-1) Améliorés
-2) Utilisables
-3) Séparés pour le personnel et les patients
-4) Séparés par sexe avec des installations d'hygiène menstruelle
-5) Accessibles aux utilisateurs à mobilité réduite</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Cavaillon : 9
-Ferrier : 6
-Léogâne : 14
-Pignon : 3
-Terre-Neuve : 2
-Ensemble : 34
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-97.14%
-</t>
-    </r>
-  </si>
-  <si>
-    <t>2430a</t>
-  </si>
-  <si>
-    <t>Pourcentage d'écoles bénéficiant  de services d'hygiène de base</t>
-  </si>
-  <si>
-    <t>Nombre d'écoles nouvellement équipées de services d'hygiène de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères de l'OMS/UNICEF JMP pour les écoles.
-« Hygiène de base » :
-1) Présence d'installations pour se laver les mains
-2) Présence de savon et d'eau</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Cavaillon : 14
-Ferrier : 9
-Léogâne : 20
-Pignon : 18
-Terre-Neuve : 4
-Ensemble : 65
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-26.75%</t>
-    </r>
-  </si>
-  <si>
-    <t>2430b</t>
-  </si>
-  <si>
-    <t>Pourcentage d'établissements de santé bénéficiant de services d'hygiène de base</t>
-  </si>
-  <si>
-    <t>« Nombre d'établissements de santé nouvellement équipés de services d'hygiène de base dans les communes d'intervention, grâce aux interventions de HANWASH et de ses partenaires, répondant aux critères du JMP de l'OMS/UNICEF pour les établissements de santé.
-« Hygiène de base » :
-...Dans les lieux de soins
-1) Installations présentes
-2) Savon et eau ou désinfectant pour les mains à base d'alcool présents
-...Dans les toilettes
-1) À moins de 5 m des toilettes
-2) Installations présentes
-3) Savon et eau présents »</t>
-  </si>
-  <si>
-    <t>établissements de santé</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Cavaillon : 7
-Ferrier : 5
-Léogâne : 4
-Pignon : 2
-Terre-Neuve : 1
-Ensemble : 19
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-54.29%</t>
-    </r>
-  </si>
-  <si>
-    <t>3100a</t>
-  </si>
-  <si>
-    <t>Montant cumulé des fonds engagés conformément aux valeurs fondamentales de HANWASH, sur la base d'un protocole d'accord signé avec HANWASH</t>
-  </si>
-  <si>
-    <t>Montant cumulé (en dollars américains) engagé dans des projets conformes aux valeurs fondamentales de HANWASH : leadership local, collaboration, approche systématique, impact et engagement.</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>$ 2 683 760,00</t>
-  </si>
-  <si>
-    <t>3200a</t>
-  </si>
-  <si>
-    <t>Pourcentage de partenaires de mise en œuvre dans les zones du programme HANWASH ayant signé le cadre d'accord DINEPA.</t>
-  </si>
-  <si>
-    <t>Pourcentage de partenaires de mise en œuvre dans les zones couvertes par le programme HANWASH ayant signé l'Accord-cadre DINEPA, garantissant ainsi la conformité avec les normes nationales.
-(Nombre de partenaires de mise en œuvre ayant signé l'Accord-cadre / Nombre total de partenaires de mise en œuvre dans les zones couvertes par le programme HANWASH) x 100 »</t>
-  </si>
-  <si>
-    <t>% des partenaires de mise en œuvre dans les zones couvertes par le programme HANWASH</t>
-  </si>
-  <si>
-    <t>2300a</t>
-  </si>
-  <si>
-    <t>Percentage of population in intervention communes with access to at least basic hygiene service</t>
-  </si>
-  <si>
-    <t>Cavaillon : 1.56%
-Ferrier : 1.64%
-Léogâne : 9.42%
-Pignon : 4.55%
-Terre-Neuve : 0.77%
-Ensemble : 5%</t>
-  </si>
-  <si>
-    <t>2100e</t>
-  </si>
-  <si>
-    <t>Pourcentage des points d'eau concernés qui sont potables.</t>
-  </si>
-  <si>
     <t>(rapport page 26: 4.3. Distribution and analysis of surveyed water points by potability status)
 Proxy</t>
-  </si>
-  <si>
-    <t>2100f</t>
-  </si>
-  <si>
-    <t>Pourcentage des points d'eau concernés dont le budget est équilibré ou excédentaire après deux ans.</t>
   </si>
   <si>
     <t>(rapport page 25: Table 8: Water point management methods by municipality)
@@ -1111,7 +1222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1157,6 +1268,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1196,7 +1312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1219,11 +1335,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1239,6 +1368,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1291,6 +1423,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1569,15 +1716,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9808F3C4-31CF-4E4C-8339-52B1C4BA989C}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E13" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="106.5" customHeight="1"/>
+  <cols>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="106.5" customHeight="1">
+    <row r="1" spans="1:9" ht="106.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1603,29 +1754,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6">
-        <v>100</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="106.5" customHeight="1">
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="106.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1635,7 +1786,7 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1644,14 +1795,17 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="106.5" customHeight="1">
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="106.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
@@ -1659,157 +1813,162 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="G4" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="17">
-        <v>100</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="17" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="B5" s="18">
+        <v>100</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6">
-        <v>100</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="F5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="B6" s="7">
+        <v>100</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="17">
-        <v>100</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="B7" s="18">
+        <v>100</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="17">
-        <v>100</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="18">
+        <v>100</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6">
-        <v>100</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="B9" s="7">
+        <v>100</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6">
-        <v>100</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="B10" s="7">
+        <v>100</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="106.5" customHeight="1">
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="106.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="4">
         <v>100</v>
@@ -1817,51 +1976,57 @@
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="106.5" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="106.5" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="4">
-        <v>100</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>56</v>
+      <c r="G12" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="106.5" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="338.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4">
         <v>100</v>
@@ -1869,77 +2034,86 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>58</v>
+      <c r="D13" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="6">
+        <v>55</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="7">
         <v>97.4</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="174.75" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="7">
         <v>97.4</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="106.5" customHeight="1">
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="159.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4">
         <v>100</v>
@@ -1947,103 +2121,106 @@
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>71</v>
+      <c r="D16" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="17">
-        <v>100</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="18">
-        <v>100</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="17" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="18">
+        <v>100</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="19">
+        <v>100</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="H18" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A19" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="18">
-        <v>100</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>88</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="19">
+        <v>100</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="106.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="155.25" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B20" s="4">
         <v>100</v>
@@ -2051,25 +2228,28 @@
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>90</v>
+      <c r="D20" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="106.5" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="175.5" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4">
         <v>100</v>
@@ -2077,25 +2257,28 @@
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>95</v>
+      <c r="D21" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="106.5" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="172.5" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
@@ -2103,25 +2286,28 @@
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>99</v>
+      <c r="D22" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="15" t="s">
         <v>101</v>
       </c>
+      <c r="G22" s="30" t="s">
+        <v>112</v>
+      </c>
       <c r="H22" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="106.5" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="179.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B23" s="4">
         <v>100</v>
@@ -2129,25 +2315,28 @@
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>103</v>
+      <c r="D23" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="106.5" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="197.25" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4">
         <v>100</v>
@@ -2155,25 +2344,28 @@
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>107</v>
+      <c r="D24" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="106.5" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="154.5" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B25" s="4">
         <v>100</v>
@@ -2181,117 +2373,132 @@
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>111</v>
+      <c r="D25" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>114</v>
+        <v>127</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="6">
-        <v>100</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="6">
-        <v>100</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" ht="106.5" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="7">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="7">
+        <v>100</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="106.5" customHeight="1">
+      <c r="A28" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="291" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="10" t="s">
-        <v>128</v>
+      <c r="D29" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="20" t="s">
-        <v>129</v>
+      <c r="G29" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="106.5" customHeight="1">
+      <c r="I29" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="106.5" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="10" t="s">
-        <v>131</v>
+      <c r="D30" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="5" t="s">
-        <v>132</v>
+      <c r="G30" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="H30" s="4"/>
+      <c r="I30" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H30" xr:uid="{9808F3C4-31CF-4E4C-8339-52B1C4BA989C}"/>
@@ -2345,26 +2552,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="137.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6">
-        <v>100</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="106.5">
       <c r="A3" s="4" t="s">
@@ -2376,7 +2583,7 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2392,7 +2599,7 @@
     </row>
     <row r="4" spans="1:8" ht="152.25">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
@@ -2400,157 +2607,157 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="60.75">
-      <c r="A5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="17">
-        <v>100</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="B5" s="18">
+        <v>100</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="E5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="106.5">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="6">
-        <v>100</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="B6" s="7">
+        <v>100</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" customFormat="1" ht="76.5">
-      <c r="A7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="17">
-        <v>100</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="B7" s="18">
+        <v>100</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="E7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" customFormat="1" ht="91.5">
-      <c r="A8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="17">
-        <v>100</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="A8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="18">
+        <v>100</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" ht="198">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="6">
-        <v>100</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="B9" s="7">
+        <v>100</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" ht="167.25">
-      <c r="A10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="6">
-        <v>100</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="B10" s="7">
+        <v>100</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="112.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="4">
         <v>100</v>
@@ -2558,51 +2765,51 @@
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="104.25" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="4">
-        <v>100</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.6">
       <c r="A13" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4">
         <v>100</v>
@@ -2610,77 +2817,77 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>58</v>
+      <c r="D13" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" customFormat="1" ht="409.6">
-      <c r="A14" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="7">
         <v>97.4</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>52</v>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" customFormat="1" ht="106.5">
-      <c r="A15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="7">
         <v>97.4</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>52</v>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="275.25">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4">
         <v>100</v>
@@ -2688,103 +2895,103 @@
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>71</v>
+      <c r="D16" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" customFormat="1" ht="213">
-      <c r="A17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="17">
-        <v>100</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>52</v>
+      <c r="A17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="18">
+        <v>100</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="366">
-      <c r="A18" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="18">
-        <v>100</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>83</v>
+      <c r="A18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="19">
+        <v>100</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.6">
-      <c r="A19" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="18">
-        <v>100</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>88</v>
+      <c r="A19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="19">
+        <v>100</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="259.5">
       <c r="A20" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B20" s="4">
         <v>100</v>
@@ -2792,25 +2999,25 @@
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>90</v>
+      <c r="D20" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="305.25">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4">
         <v>100</v>
@@ -2818,25 +3025,25 @@
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>95</v>
+      <c r="D21" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="244.5">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
@@ -2844,25 +3051,25 @@
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>99</v>
+      <c r="D22" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="15" t="s">
         <v>101</v>
       </c>
+      <c r="G22" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="H22" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="336">
       <c r="A23" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B23" s="4">
         <v>100</v>
@@ -2870,25 +3077,25 @@
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>103</v>
+      <c r="D23" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="213">
       <c r="A24" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4">
         <v>100</v>
@@ -2896,25 +3103,25 @@
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>107</v>
+      <c r="D24" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="321">
       <c r="A25" s="4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B25" s="4">
         <v>100</v>
@@ -2922,115 +3129,115 @@
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>111</v>
+      <c r="D25" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>114</v>
+        <v>127</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" customFormat="1" ht="106.5">
-      <c r="A26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="6">
-        <v>100</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="6"/>
+      <c r="A26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="7">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" customFormat="1" ht="244.5">
-      <c r="A27" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="6">
-        <v>100</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="7">
+        <v>100</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="91.5">
-      <c r="A28" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
-        <v>92</v>
+      <c r="A28" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="19"/>
+        <v>142</v>
+      </c>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="43.5">
       <c r="A29" s="4" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="10" t="s">
-        <v>128</v>
+      <c r="D29" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="20" t="s">
-        <v>129</v>
+      <c r="G29" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="60.75">
       <c r="A30" s="4" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="10" t="s">
-        <v>131</v>
+      <c r="D30" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="H30" s="4"/>
     </row>
@@ -3079,62 +3286,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3151,10 +3358,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3171,750 +3378,750 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3941,16 +4148,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4004,13 +4211,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -4024,13 +4231,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -4044,13 +4251,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -4064,13 +4271,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -4084,13 +4291,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -4104,13 +4311,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -4124,13 +4331,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -4144,13 +4351,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -4164,13 +4371,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -4184,13 +4391,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -4204,13 +4411,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E14">
         <v>97.4</v>
@@ -4224,13 +4431,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="E15">
         <v>97.4</v>
@@ -4244,13 +4451,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -4264,13 +4471,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -4284,13 +4491,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -4304,13 +4511,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -4324,13 +4531,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -4344,13 +4551,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -4364,13 +4571,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -4384,13 +4591,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -4404,13 +4611,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -4424,13 +4631,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -4444,13 +4651,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -4464,13 +4671,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -4545,365 +4752,365 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
